--- a/team_specific_matrix/Towson_A.xlsx
+++ b/team_specific_matrix/Towson_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2162162162162162</v>
+        <v>0.2106918238993711</v>
       </c>
       <c r="C2">
-        <v>0.4903474903474904</v>
+        <v>0.5031446540880503</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03088803088803089</v>
+        <v>0.03459119496855346</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1467181467181467</v>
+        <v>0.1352201257861635</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1158301158301158</v>
+        <v>0.1163522012578616</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01492537313432836</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C3">
-        <v>0.05223880597014925</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04477611940298507</v>
+        <v>0.04848484848484848</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6194029850746269</v>
+        <v>0.6121212121212121</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2686567164179104</v>
+        <v>0.2848484848484849</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02777777777777778</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P4">
-        <v>0.6944444444444444</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07518796992481203</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007518796992481203</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03759398496240601</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2781954887218045</v>
+        <v>0.2901234567901235</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03007518796992481</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1804511278195489</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="R6">
-        <v>0.06766917293233082</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S6">
-        <v>0.3233082706766917</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1615384615384615</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007692307692307693</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="E7">
-        <v>0.007692307692307693</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="F7">
-        <v>0.03846153846153846</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2307692307692308</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007692307692307693</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1538461538461539</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="S7">
-        <v>0.3153846153846154</v>
+        <v>0.3459119496855346</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08201892744479496</v>
+        <v>0.08533333333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02523659305993691</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="E8">
-        <v>0.003154574132492113</v>
+        <v>0.002666666666666667</v>
       </c>
       <c r="F8">
-        <v>0.05362776025236593</v>
+        <v>0.04533333333333334</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.195583596214511</v>
+        <v>0.192</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01577287066246057</v>
+        <v>0.01866666666666667</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1829652996845426</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="R8">
-        <v>0.08201892744479496</v>
+        <v>0.08533333333333333</v>
       </c>
       <c r="S8">
-        <v>0.3596214511041009</v>
+        <v>0.3573333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.140495867768595</v>
+        <v>0.1354838709677419</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.008264462809917356</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1487603305785124</v>
+        <v>0.1225806451612903</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04958677685950413</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2644628099173554</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="R9">
-        <v>0.06611570247933884</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="S9">
-        <v>0.3223140495867768</v>
+        <v>0.3419354838709677</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1212989493791786</v>
+        <v>0.1256788207913111</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02483285577841452</v>
+        <v>0.02404965089216447</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06112702960840496</v>
+        <v>0.06051202482544608</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.166189111747851</v>
+        <v>0.1598138091543832</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01910219675262655</v>
+        <v>0.02404965089216447</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1872015281757402</v>
+        <v>0.1908456167571761</v>
       </c>
       <c r="R10">
-        <v>0.08213944603629417</v>
+        <v>0.07835531419705198</v>
       </c>
       <c r="S10">
-        <v>0.33810888252149</v>
+        <v>0.3366951124903025</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1519607843137255</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.107843137254902</v>
+        <v>0.1133603238866397</v>
       </c>
       <c r="K11">
-        <v>0.2058823529411765</v>
+        <v>0.1983805668016194</v>
       </c>
       <c r="L11">
-        <v>0.5196078431372549</v>
+        <v>0.5303643724696356</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01470588235294118</v>
+        <v>0.01214574898785425</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6666666666666666</v>
+        <v>0.6549295774647887</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2543859649122807</v>
+        <v>0.2605633802816901</v>
       </c>
       <c r="K12">
-        <v>0.01754385964912281</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="L12">
-        <v>0.04385964912280702</v>
+        <v>0.04929577464788732</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01754385964912281</v>
+        <v>0.01408450704225352</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01169590643274854</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1286549707602339</v>
+        <v>0.119815668202765</v>
       </c>
       <c r="I15">
-        <v>0.05263157894736842</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="J15">
-        <v>0.3976608187134503</v>
+        <v>0.391705069124424</v>
       </c>
       <c r="K15">
-        <v>0.07017543859649122</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005847953216374269</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05263157894736842</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2807017543859649</v>
+        <v>0.2949308755760369</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02112676056338028</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1549295774647887</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="I16">
-        <v>0.05633802816901409</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="J16">
-        <v>0.4436619718309859</v>
+        <v>0.4375</v>
       </c>
       <c r="K16">
-        <v>0.147887323943662</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007042253521126761</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="O16">
-        <v>0.04225352112676056</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1267605633802817</v>
+        <v>0.1079545454545455</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2006079027355623</v>
+        <v>0.187192118226601</v>
       </c>
       <c r="I17">
-        <v>0.06382978723404255</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J17">
-        <v>0.4407294832826747</v>
+        <v>0.4507389162561576</v>
       </c>
       <c r="K17">
-        <v>0.0668693009118541</v>
+        <v>0.0812807881773399</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0121580547112462</v>
+        <v>0.01231527093596059</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0729483282674772</v>
+        <v>0.06650246305418719</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1428571428571428</v>
+        <v>0.1305418719211823</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2116788321167883</v>
+        <v>0.2108433734939759</v>
       </c>
       <c r="I18">
-        <v>0.08759124087591241</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="J18">
-        <v>0.4233576642335766</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="K18">
-        <v>0.1021897810218978</v>
+        <v>0.1024096385542169</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0583941605839416</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1167883211678832</v>
+        <v>0.1024096385542169</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01576576576576576</v>
+        <v>0.01194852941176471</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1959459459459459</v>
+        <v>0.1902573529411765</v>
       </c>
       <c r="I19">
-        <v>0.0777027027027027</v>
+        <v>0.07720588235294118</v>
       </c>
       <c r="J19">
-        <v>0.3795045045045045</v>
+        <v>0.3897058823529412</v>
       </c>
       <c r="K19">
-        <v>0.09797297297297297</v>
+        <v>0.09742647058823529</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02815315315315315</v>
+        <v>0.03033088235294118</v>
       </c>
       <c r="N19">
-        <v>0.003378378378378379</v>
+        <v>0.002757352941176471</v>
       </c>
       <c r="O19">
-        <v>0.08333333333333333</v>
+        <v>0.07996323529411764</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1182432432432432</v>
+        <v>0.1204044117647059</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Towson_A.xlsx
+++ b/team_specific_matrix/Towson_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2106918238993711</v>
+        <v>0.2172619047619048</v>
       </c>
       <c r="C2">
-        <v>0.5031446540880503</v>
+        <v>0.4970238095238095</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03459119496855346</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1352201257861635</v>
+        <v>0.1398809523809524</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1163522012578616</v>
+        <v>0.1101190476190476</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01212121212121212</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C3">
-        <v>0.04242424242424243</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04848484848484848</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6121212121212121</v>
+        <v>0.6104651162790697</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2848484848484849</v>
+        <v>0.2906976744186047</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0425531914893617</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02127659574468085</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P4">
-        <v>0.7659574468085106</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1702127659574468</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07407407407407407</v>
+        <v>0.06936416184971098</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01234567901234568</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03703703703703703</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2901234567901235</v>
+        <v>0.2890173410404624</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03703703703703703</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1790123456790123</v>
+        <v>0.1734104046242775</v>
       </c>
       <c r="R6">
-        <v>0.07407407407407407</v>
+        <v>0.06936416184971098</v>
       </c>
       <c r="S6">
-        <v>0.2962962962962963</v>
+        <v>0.3121387283236994</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1383647798742138</v>
+        <v>0.1345029239766082</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02515723270440252</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="E7">
-        <v>0.006289308176100629</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="F7">
-        <v>0.0440251572327044</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2075471698113208</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01257861635220126</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1509433962264151</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R7">
-        <v>0.06918238993710692</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="S7">
-        <v>0.3459119496855346</v>
+        <v>0.3450292397660819</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08533333333333333</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02666666666666667</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="E8">
-        <v>0.002666666666666667</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="F8">
-        <v>0.04533333333333334</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.192</v>
+        <v>0.1909547738693467</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01866666666666667</v>
+        <v>0.01758793969849246</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1866666666666667</v>
+        <v>0.1884422110552764</v>
       </c>
       <c r="R8">
-        <v>0.08533333333333333</v>
+        <v>0.08291457286432161</v>
       </c>
       <c r="S8">
-        <v>0.3573333333333333</v>
+        <v>0.3618090452261307</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1354838709677419</v>
+        <v>0.1271676300578035</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006451612903225806</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02580645161290323</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1225806451612903</v>
+        <v>0.138728323699422</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03225806451612903</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2580645161290323</v>
+        <v>0.2543352601156069</v>
       </c>
       <c r="R9">
-        <v>0.07741935483870968</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="S9">
-        <v>0.3419354838709677</v>
+        <v>0.3410404624277457</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1256788207913111</v>
+        <v>0.1216702663786897</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02404965089216447</v>
+        <v>0.02447804175665947</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06051202482544608</v>
+        <v>0.06047516198704104</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1598138091543832</v>
+        <v>0.1547876169906408</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02404965089216447</v>
+        <v>0.02375809935205184</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1908456167571761</v>
+        <v>0.1943844492440605</v>
       </c>
       <c r="R10">
-        <v>0.07835531419705198</v>
+        <v>0.08063354931605471</v>
       </c>
       <c r="S10">
-        <v>0.3366951124903025</v>
+        <v>0.339812814974802</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.145748987854251</v>
+        <v>0.1486988847583643</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1133603238866397</v>
+        <v>0.1078066914498141</v>
       </c>
       <c r="K11">
-        <v>0.1983805668016194</v>
+        <v>0.2007434944237918</v>
       </c>
       <c r="L11">
-        <v>0.5303643724696356</v>
+        <v>0.5315985130111525</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01214574898785425</v>
+        <v>0.01115241635687732</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6549295774647887</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2605633802816901</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="K12">
-        <v>0.02112676056338028</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="L12">
-        <v>0.04929577464788732</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01408450704225352</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7441860465116279</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2558139534883721</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0184331797235023</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.119815668202765</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="I15">
-        <v>0.05990783410138249</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="J15">
-        <v>0.391705069124424</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="K15">
-        <v>0.05990783410138249</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004608294930875576</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05069124423963134</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2949308755760369</v>
+        <v>0.29004329004329</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02272727272727273</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1704545454545454</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="I16">
-        <v>0.06818181818181818</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J16">
-        <v>0.4375</v>
+        <v>0.4462365591397849</v>
       </c>
       <c r="K16">
-        <v>0.125</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005681818181818182</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="N16">
-        <v>0.005681818181818182</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="O16">
-        <v>0.05681818181818182</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1079545454545455</v>
+        <v>0.1075268817204301</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.187192118226601</v>
+        <v>0.1805869074492099</v>
       </c>
       <c r="I17">
-        <v>0.07142857142857142</v>
+        <v>0.07223476297968397</v>
       </c>
       <c r="J17">
-        <v>0.4507389162561576</v>
+        <v>0.4604966139954853</v>
       </c>
       <c r="K17">
-        <v>0.0812807881773399</v>
+        <v>0.0835214446952596</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01231527093596059</v>
+        <v>0.01580135440180587</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06650246305418719</v>
+        <v>0.06320541760722348</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1305418719211823</v>
+        <v>0.1241534988713318</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006024096385542169</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2108433734939759</v>
+        <v>0.2067039106145251</v>
       </c>
       <c r="I18">
-        <v>0.0963855421686747</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="J18">
-        <v>0.4216867469879518</v>
+        <v>0.4301675977653631</v>
       </c>
       <c r="K18">
-        <v>0.1024096385542169</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006024096385542169</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05421686746987952</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1024096385542169</v>
+        <v>0.1005586592178771</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01194852941176471</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1902573529411765</v>
+        <v>0.1873396065012831</v>
       </c>
       <c r="I19">
-        <v>0.07720588235294118</v>
+        <v>0.08297690333618478</v>
       </c>
       <c r="J19">
-        <v>0.3897058823529412</v>
+        <v>0.3875106928999145</v>
       </c>
       <c r="K19">
-        <v>0.09742647058823529</v>
+        <v>0.1026518391787853</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03033088235294118</v>
+        <v>0.02822925577416596</v>
       </c>
       <c r="N19">
-        <v>0.002757352941176471</v>
+        <v>0.002566295979469632</v>
       </c>
       <c r="O19">
-        <v>0.07996323529411764</v>
+        <v>0.07869974337040206</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1204044117647059</v>
+        <v>0.1180496150556031</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Towson_A.xlsx
+++ b/team_specific_matrix/Towson_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2172619047619048</v>
+        <v>0.2190201729106628</v>
       </c>
       <c r="C2">
-        <v>0.4970238095238095</v>
+        <v>0.4956772334293948</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03571428571428571</v>
+        <v>0.0345821325648415</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1398809523809524</v>
+        <v>0.1412103746397695</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1101190476190476</v>
+        <v>0.1095100864553314</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01162790697674419</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="C3">
-        <v>0.04069767441860465</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04651162790697674</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6104651162790697</v>
+        <v>0.615819209039548</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2906976744186047</v>
+        <v>0.2824858757062147</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06936416184971098</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01734104046242774</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03468208092485549</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2890173410404624</v>
+        <v>0.2810810810810811</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03468208092485549</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1734104046242775</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="R6">
-        <v>0.06936416184971098</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="S6">
-        <v>0.3121387283236994</v>
+        <v>0.3189189189189189</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1345029239766082</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02923976608187134</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="E7">
-        <v>0.005847953216374269</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="F7">
-        <v>0.04093567251461988</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2105263157894737</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01169590643274854</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1578947368421053</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="R7">
-        <v>0.06432748538011696</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="S7">
-        <v>0.3450292397660819</v>
+        <v>0.3478260869565217</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08542713567839195</v>
+        <v>0.0827250608272506</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02512562814070352</v>
+        <v>0.024330900243309</v>
       </c>
       <c r="E8">
-        <v>0.002512562814070352</v>
+        <v>0.004866180048661801</v>
       </c>
       <c r="F8">
-        <v>0.04522613065326633</v>
+        <v>0.04866180048661801</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1909547738693467</v>
+        <v>0.1897810218978102</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01758793969849246</v>
+        <v>0.0170316301703163</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1884422110552764</v>
+        <v>0.1873479318734793</v>
       </c>
       <c r="R8">
-        <v>0.08291457286432161</v>
+        <v>0.0827250608272506</v>
       </c>
       <c r="S8">
-        <v>0.3618090452261307</v>
+        <v>0.3625304136253041</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1271676300578035</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005780346820809248</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02890173410404624</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.138728323699422</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02890173410404624</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2543352601156069</v>
+        <v>0.2584269662921349</v>
       </c>
       <c r="R9">
-        <v>0.07514450867052024</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="S9">
-        <v>0.3410404624277457</v>
+        <v>0.3370786516853932</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1216702663786897</v>
+        <v>0.1225626740947075</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02447804175665947</v>
+        <v>0.02437325905292479</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06047516198704104</v>
+        <v>0.06337047353760446</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1547876169906408</v>
+        <v>0.1580779944289694</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02375809935205184</v>
+        <v>0.02367688022284123</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1943844492440605</v>
+        <v>0.1942896935933148</v>
       </c>
       <c r="R10">
-        <v>0.08063354931605471</v>
+        <v>0.0786908077994429</v>
       </c>
       <c r="S10">
-        <v>0.339812814974802</v>
+        <v>0.334958217270195</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1486988847583643</v>
+        <v>0.1514084507042253</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1078066914498141</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="K11">
-        <v>0.2007434944237918</v>
+        <v>0.2042253521126761</v>
       </c>
       <c r="L11">
-        <v>0.5315985130111525</v>
+        <v>0.528169014084507</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01115241635687732</v>
+        <v>0.01056338028169014</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6470588235294118</v>
+        <v>0.6604938271604939</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2745098039215687</v>
+        <v>0.2654320987654321</v>
       </c>
       <c r="K12">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="L12">
-        <v>0.0457516339869281</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0130718954248366</v>
+        <v>0.01234567901234568</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7555555555555555</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2444444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01731601731601732</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1212121212121212</v>
+        <v>0.1213389121338912</v>
       </c>
       <c r="I15">
-        <v>0.06493506493506493</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="J15">
-        <v>0.3896103896103896</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="K15">
-        <v>0.05627705627705628</v>
+        <v>0.05857740585774059</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004329004329004329</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05627705627705628</v>
+        <v>0.05439330543933055</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.29004329004329</v>
+        <v>0.301255230125523</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02150537634408602</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1774193548387097</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="I16">
-        <v>0.06451612903225806</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="J16">
-        <v>0.4462365591397849</v>
+        <v>0.4322916666666667</v>
       </c>
       <c r="K16">
-        <v>0.1182795698924731</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005376344086021506</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="N16">
-        <v>0.005376344086021506</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="O16">
-        <v>0.05376344086021505</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1075268817204301</v>
+        <v>0.1145833333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1805869074492099</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="I17">
-        <v>0.07223476297968397</v>
+        <v>0.07173913043478261</v>
       </c>
       <c r="J17">
-        <v>0.4604966139954853</v>
+        <v>0.4543478260869565</v>
       </c>
       <c r="K17">
-        <v>0.0835214446952596</v>
+        <v>0.08478260869565217</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01580135440180587</v>
+        <v>0.01521739130434783</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="O17">
-        <v>0.06320541760722348</v>
+        <v>0.06304347826086956</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1241534988713318</v>
+        <v>0.1260869565217391</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00558659217877095</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2067039106145251</v>
+        <v>0.2021857923497268</v>
       </c>
       <c r="I18">
-        <v>0.0893854748603352</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="J18">
-        <v>0.4301675977653631</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="K18">
-        <v>0.09497206703910614</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00558659217877095</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0670391061452514</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1005586592178771</v>
+        <v>0.1038251366120219</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01197604790419162</v>
+        <v>0.0115702479338843</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1873396065012831</v>
+        <v>0.1867768595041322</v>
       </c>
       <c r="I19">
-        <v>0.08297690333618478</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="J19">
-        <v>0.3875106928999145</v>
+        <v>0.3892561983471075</v>
       </c>
       <c r="K19">
-        <v>0.1026518391787853</v>
+        <v>0.1033057851239669</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02822925577416596</v>
+        <v>0.02809917355371901</v>
       </c>
       <c r="N19">
-        <v>0.002566295979469632</v>
+        <v>0.002479338842975207</v>
       </c>
       <c r="O19">
-        <v>0.07869974337040206</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1180496150556031</v>
+        <v>0.1173553719008264</v>
       </c>
     </row>
   </sheetData>
